--- a/data/trans_dic/P14B23-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03161508665623073</v>
+        <v>0.03330270863867977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02279712315453897</v>
+        <v>0.02213802620059235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05620207107012753</v>
+        <v>0.05520346055451672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1232105065066724</v>
+        <v>0.1224826551631982</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1094370019167442</v>
+        <v>0.1102674094803075</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1168052180369865</v>
+        <v>0.1176262035319333</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08838815292875389</v>
+        <v>0.08777671947759788</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07610998628521091</v>
+        <v>0.07574413897250512</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09577892806998412</v>
+        <v>0.09671185110573065</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06029032083347219</v>
+        <v>0.06231428539955828</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04938188707781318</v>
+        <v>0.04938574757346844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.096845106740533</v>
+        <v>0.09705305590473831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1616621823699949</v>
+        <v>0.1610100830332453</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1530595426516001</v>
+        <v>0.1536835566390159</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1544464829028392</v>
+        <v>0.1537094137567043</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1145460301291167</v>
+        <v>0.113183100038369</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1045772913793077</v>
+        <v>0.1034875489015778</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.125345142190541</v>
+        <v>0.1241488607890835</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.04979836717957963</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.07253041389536787</v>
+        <v>0.07253041389536785</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.03399160430297637</v>
@@ -773,7 +773,7 @@
         <v>0.03380231338089152</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.05176005798103569</v>
+        <v>0.0517600579810357</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01324855537931345</v>
+        <v>0.01375363332324062</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01296116370650027</v>
+        <v>0.01314652566401263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02459176868291569</v>
+        <v>0.02488040333018707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04170083668327395</v>
+        <v>0.04032692665985374</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04097996797840884</v>
+        <v>0.03993542547036599</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06277438211858351</v>
+        <v>0.06357744098356545</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02833753138442074</v>
+        <v>0.02818309776781067</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02815793002691882</v>
+        <v>0.0286508814640215</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04579048964246046</v>
+        <v>0.04576743880147922</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02680839528942206</v>
+        <v>0.02765148676692648</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02563853462362299</v>
+        <v>0.0249359108166456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04080044506295724</v>
+        <v>0.03974852911136416</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06357422858245584</v>
+        <v>0.06158089119287453</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06154709645411466</v>
+        <v>0.0615864630487556</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08239094981067126</v>
+        <v>0.08328118236992098</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04038470981287724</v>
+        <v>0.04101169857921788</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0400069116864779</v>
+        <v>0.04012755050116671</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05831509481349063</v>
+        <v>0.057948311642059</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.005281023425639102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03155869168798971</v>
+        <v>0.0315586916879897</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.01861114864495196</v>
@@ -882,7 +882,7 @@
         <v>0.01064636797697855</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.03675206902315068</v>
+        <v>0.03675206902315067</v>
       </c>
     </row>
     <row r="11">
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001626515930363521</v>
+        <v>0.001626723149062489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01953399417339693</v>
+        <v>0.01974051292076773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007681673296985986</v>
+        <v>0.008296521788414528</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007080105765425748</v>
+        <v>0.007030401451376839</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02964480722720221</v>
+        <v>0.03157154431331943</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005582555279072286</v>
+        <v>0.005785581386272835</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005510993228934891</v>
+        <v>0.005515153369524861</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02665309922842029</v>
+        <v>0.02774969366935434</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02410545574133073</v>
+        <v>0.02290196424128436</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01443135214366577</v>
+        <v>0.01584612010528667</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05092143403546543</v>
+        <v>0.04973271660696928</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03814252445156788</v>
+        <v>0.03752712223442051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0296763340336076</v>
+        <v>0.0308800380327739</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05679233634917086</v>
+        <v>0.05851957176408898</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02246288022310574</v>
+        <v>0.02453491126873449</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0182499978780566</v>
+        <v>0.0191350859817486</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04665724732191953</v>
+        <v>0.04737011596213597</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.04411289320427091</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.0598537737697565</v>
+        <v>0.05985377376975652</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02022447788157944</v>
+        <v>0.01971785904255263</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01547668740721391</v>
+        <v>0.01532115908456248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0316133096550533</v>
+        <v>0.0325091061923319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0710422001604791</v>
+        <v>0.07165427662262328</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05859435990269903</v>
+        <v>0.05819237967683093</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07231136458352169</v>
+        <v>0.07285146289016049</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04733658546645465</v>
+        <v>0.04753855570148039</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03902910631580808</v>
+        <v>0.03890017785626779</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0552756371279558</v>
+        <v>0.05498443978162167</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03227960790761397</v>
+        <v>0.03101281770771846</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02481475376330234</v>
+        <v>0.0250551161168326</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04609488537993577</v>
+        <v>0.04606212871780126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08981257719831046</v>
+        <v>0.08872073101423875</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07559059016230198</v>
+        <v>0.07664779785030593</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08805710814909432</v>
+        <v>0.08867883086560448</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05882834386042295</v>
+        <v>0.05890311576555371</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04926757588879049</v>
+        <v>0.04918554022684404</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06544148533004157</v>
+        <v>0.06534386901593374</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30779</v>
+        <v>32422</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17197</v>
+        <v>16700</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32515</v>
+        <v>31937</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>163828</v>
+        <v>162860</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>108853</v>
+        <v>109679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>96018</v>
+        <v>96693</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>203576</v>
+        <v>202168</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>133117</v>
+        <v>132477</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>134145</v>
+        <v>135451</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58695</v>
+        <v>60666</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37251</v>
+        <v>37254</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56028</v>
+        <v>56148</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>214956</v>
+        <v>214089</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>152242</v>
+        <v>152863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>126961</v>
+        <v>126355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>263823</v>
+        <v>260684</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>182906</v>
+        <v>181000</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>175554</v>
+        <v>173879</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26006</v>
+        <v>26997</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26912</v>
+        <v>27297</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54854</v>
+        <v>55497</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73168</v>
+        <v>70757</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>81480</v>
+        <v>79404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>136308</v>
+        <v>138052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105345</v>
+        <v>104771</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>114453</v>
+        <v>116457</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>201568</v>
+        <v>201466</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52622</v>
+        <v>54277</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53235</v>
+        <v>51777</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>91008</v>
+        <v>88662</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>111547</v>
+        <v>108049</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>122374</v>
+        <v>122452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>178903</v>
+        <v>180836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>150130</v>
+        <v>152461</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>162615</v>
+        <v>163106</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>256701</v>
+        <v>255086</v>
       </c>
     </row>
     <row r="12">
@@ -1583,25 +1583,25 @@
         <v>890</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13900</v>
+        <v>14047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3523</v>
+        <v>3805</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3888</v>
+        <v>3861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21785</v>
+        <v>23201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5247</v>
+        <v>5437</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6040</v>
+        <v>6045</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38553</v>
+        <v>40139</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11599</v>
+        <v>11020</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7892</v>
+        <v>8666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36235</v>
+        <v>35389</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17493</v>
+        <v>17211</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16296</v>
+        <v>16957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41735</v>
+        <v>43005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21111</v>
+        <v>23058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20002</v>
+        <v>20973</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67488</v>
+        <v>68519</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69120</v>
+        <v>67388</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52274</v>
+        <v>51749</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>111300</v>
+        <v>114454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>251694</v>
+        <v>253863</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>206961</v>
+        <v>205541</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>269599</v>
+        <v>271613</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>329487</v>
+        <v>330893</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>269680</v>
+        <v>268789</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>400693</v>
+        <v>398582</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>110320</v>
+        <v>105990</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83815</v>
+        <v>84627</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>162285</v>
+        <v>162170</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>318196</v>
+        <v>314327</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>266994</v>
+        <v>270728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>328304</v>
+        <v>330622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>409476</v>
+        <v>409996</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>340425</v>
+        <v>339858</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>474385</v>
+        <v>473677</v>
       </c>
     </row>
     <row r="20">
